--- a/final-project/car_model_fipe.xlsx
+++ b/final-project/car_model_fipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Data Science\ias-sty_final-project\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE66EBE-A2CB-4EE9-ADB6-B1A167B5A43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A60818-7F9D-4384-9687-E752BF074B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B46FD951-8393-41A4-853F-5990EC747DA2}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="49">
   <si>
     <t>Polo 1.0 Flex 12V 5p</t>
   </si>
@@ -174,6 +174,27 @@
   <si>
     <t>doors_model</t>
   </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>mileage_2</t>
+  </si>
+  <si>
+    <t>mileage_1</t>
+  </si>
+  <si>
+    <t>mileage_3</t>
+  </si>
+  <si>
+    <t>mileage_4</t>
+  </si>
+  <si>
+    <t>mileage_5</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,15 +257,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -275,6 +313,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE1E1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -288,14 +331,19 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{0C3DC664-9CBC-494F-A40D-24D542775DC6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14" unboundColumnsRight="1">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="30" unboundColumnsRight="6">
+    <queryTableFields count="11">
       <queryTableField id="3" name="modelo" tableColumnId="3"/>
       <queryTableField id="5" name="ano_modelo" tableColumnId="5"/>
       <queryTableField id="6" name="preco_medio_fipe" tableColumnId="6"/>
       <queryTableField id="8" name="Cilindrada" tableColumnId="8"/>
       <queryTableField id="10" name="Potência" tableColumnId="10"/>
       <queryTableField id="13" dataBound="0" tableColumnId="1"/>
+      <queryTableField id="21" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="22" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="23" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="24" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="25" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
     <queryTableDeletedFields count="6">
       <deletedField name="infos"/>
@@ -310,15 +358,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F06FBF3-87F4-416B-B54C-50F4408B02BF}" name="car_model_fipe" displayName="car_model_fipe" ref="A1:F179" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F179" xr:uid="{9F06FBF3-87F4-416B-B54C-50F4408B02BF}"/>
-  <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{CB5B368D-D2F3-46E4-B017-2E2D3E4C2B02}" uniqueName="3" name="model" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7F135A1E-D918-45C7-9F0D-127114148D14}" uniqueName="5" name="year_model" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FF032512-86D7-4080-BC76-D5856A1E2279}" uniqueName="6" name="average_fipe_price" queryTableFieldId="6" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="8" xr3:uid="{D7B48C9F-14F0-40A3-B9E4-86018E5D854F}" uniqueName="8" name="capacity_model" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{1AAAE72B-B572-47C5-B7A4-20D4E8EB818C}" uniqueName="10" name="power_model" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{F44639AF-1879-44F9-986B-B4CE1B754BB6}" uniqueName="1" name="doors_model" queryTableFieldId="13" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F06FBF3-87F4-416B-B54C-50F4408B02BF}" name="car_model_fipe" displayName="car_model_fipe" ref="A1:K179" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K179" xr:uid="{9F06FBF3-87F4-416B-B54C-50F4408B02BF}"/>
+  <tableColumns count="11">
+    <tableColumn id="3" xr3:uid="{CB5B368D-D2F3-46E4-B017-2E2D3E4C2B02}" uniqueName="3" name="model" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{7F135A1E-D918-45C7-9F0D-127114148D14}" uniqueName="5" name="year_model" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{FF032512-86D7-4080-BC76-D5856A1E2279}" uniqueName="6" name="average_fipe_price" queryTableFieldId="6" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="8" xr3:uid="{D7B48C9F-14F0-40A3-B9E4-86018E5D854F}" uniqueName="8" name="capacity_model" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{1AAAE72B-B572-47C5-B7A4-20D4E8EB818C}" uniqueName="10" name="power_model" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{F44639AF-1879-44F9-986B-B4CE1B754BB6}" uniqueName="1" name="doors_model" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{714F2ACD-0F1A-46F7-9852-8BC0F20F10A2}" uniqueName="4" name="mileage_1" queryTableFieldId="21" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9DA9B420-BC14-42C7-B74F-D77DD8F25629}" uniqueName="7" name="mileage_2" queryTableFieldId="22" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3DE801BF-23AE-4ABB-87EA-518F8D79EED7}" uniqueName="9" name="mileage_3" queryTableFieldId="23" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{AD1709BB-27AB-4D56-AA96-A37A58C517C2}" uniqueName="11" name="mileage_4" queryTableFieldId="24" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{63DA6CD2-26D0-422D-A860-ACCD111FF89F}" uniqueName="12" name="mileage_5" queryTableFieldId="25" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -641,23 +694,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5107E3E-6E5F-47EB-9D7C-C5CD767FA766}">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -676,8 +729,23 @@
       <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,11 +761,26 @@
       <c r="E2" s="1">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>56000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>32000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>91000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>47000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>49798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,11 +796,26 @@
       <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>48693</v>
+      </c>
+      <c r="I3" s="1">
+        <v>52000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>106101</v>
+      </c>
+      <c r="K3" s="1">
+        <v>48693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,11 +831,26 @@
       <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>124145</v>
+      </c>
+      <c r="H4" s="1">
+        <v>67000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>69259</v>
+      </c>
+      <c r="J4" s="1">
+        <v>78000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,11 +866,26 @@
       <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>79000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>74000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>118590</v>
+      </c>
+      <c r="J5" s="1">
+        <v>57000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,11 +901,26 @@
       <c r="E6" s="1">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>108000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>84660</v>
+      </c>
+      <c r="I6" s="1">
+        <v>68700</v>
+      </c>
+      <c r="J6" s="1">
+        <v>141300</v>
+      </c>
+      <c r="K6" s="1">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -793,11 +936,26 @@
       <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>179000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>160000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>207000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>67000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -813,11 +971,26 @@
       <c r="E8" s="1">
         <v>12</v>
       </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -833,11 +1006,26 @@
       <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,11 +1041,26 @@
       <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>47200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>48153</v>
+      </c>
+      <c r="J10" s="1">
+        <v>13562</v>
+      </c>
+      <c r="K10" s="1">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -873,11 +1076,26 @@
       <c r="E11" s="1">
         <v>12</v>
       </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>48400</v>
+      </c>
+      <c r="I11" s="1">
+        <v>60649</v>
+      </c>
+      <c r="J11" s="1">
+        <v>69193</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -893,11 +1111,26 @@
       <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -913,11 +1146,26 @@
       <c r="E13" s="1">
         <v>12</v>
       </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -933,11 +1181,26 @@
       <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>37000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>74380</v>
+      </c>
+      <c r="J14" s="1">
+        <v>74380</v>
+      </c>
+      <c r="K14" s="1">
+        <v>70901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,11 +1216,26 @@
       <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>67589</v>
+      </c>
+      <c r="H15" s="1">
+        <v>55676</v>
+      </c>
+      <c r="I15" s="1">
+        <v>65484</v>
+      </c>
+      <c r="J15" s="1">
+        <v>66312</v>
+      </c>
+      <c r="K15" s="1">
+        <v>56056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -973,11 +1251,26 @@
       <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -993,11 +1286,26 @@
       <c r="E17" s="1">
         <v>8</v>
       </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1013,11 +1321,26 @@
       <c r="E18" s="1">
         <v>8</v>
       </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1033,11 +1356,26 @@
       <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1053,11 +1391,26 @@
       <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="F20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1073,11 +1426,26 @@
       <c r="E21" s="1">
         <v>8</v>
       </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1093,11 +1461,26 @@
       <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>286120</v>
+      </c>
+      <c r="H22" s="1">
+        <v>174000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>203000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>190000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1113,11 +1496,26 @@
       <c r="E23" s="1">
         <v>8</v>
       </c>
-      <c r="F23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1133,11 +1531,26 @@
       <c r="E24" s="1">
         <v>8</v>
       </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1153,11 +1566,26 @@
       <c r="E25" s="1">
         <v>8</v>
       </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1173,11 +1601,26 @@
       <c r="E26" s="1">
         <v>8</v>
       </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1193,11 +1636,26 @@
       <c r="E27" s="1">
         <v>8</v>
       </c>
-      <c r="F27" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1213,11 +1671,26 @@
       <c r="E28" s="1">
         <v>8</v>
       </c>
-      <c r="F28" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,11 +1706,26 @@
       <c r="E29" s="1">
         <v>8</v>
       </c>
-      <c r="F29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>173000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1253,11 +1741,26 @@
       <c r="E30" s="1">
         <v>8</v>
       </c>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1273,11 +1776,26 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-      <c r="F31" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1293,11 +1811,26 @@
       <c r="E32" s="1">
         <v>8</v>
       </c>
-      <c r="F32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1313,11 +1846,26 @@
       <c r="E33" s="1">
         <v>8</v>
       </c>
-      <c r="F33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1333,11 +1881,26 @@
       <c r="E34" s="1">
         <v>16</v>
       </c>
-      <c r="F34" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>34500</v>
+      </c>
+      <c r="H34" s="1">
+        <v>73000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>48000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>88735</v>
+      </c>
+      <c r="K34" s="1">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1353,11 +1916,26 @@
       <c r="E35" s="1">
         <v>16</v>
       </c>
-      <c r="F35" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>40762</v>
+      </c>
+      <c r="H35" s="1">
+        <v>48000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>67000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1373,11 +1951,26 @@
       <c r="E36" s="1">
         <v>16</v>
       </c>
-      <c r="F36" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>74000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>144307</v>
+      </c>
+      <c r="J36" s="1">
+        <v>129000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1393,11 +1986,26 @@
       <c r="E37" s="1">
         <v>16</v>
       </c>
-      <c r="F37" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>176000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>127570</v>
+      </c>
+      <c r="I37" s="1">
+        <v>180000</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1413,11 +2021,26 @@
       <c r="E38" s="1">
         <v>16</v>
       </c>
-      <c r="F38" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>94365</v>
+      </c>
+      <c r="H38" s="1">
+        <v>71768</v>
+      </c>
+      <c r="I38" s="1">
+        <v>56000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>96600</v>
+      </c>
+      <c r="K38" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1433,11 +2056,26 @@
       <c r="E39" s="1">
         <v>16</v>
       </c>
-      <c r="F39" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>73000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>88735</v>
+      </c>
+      <c r="I39" s="1">
+        <v>34500</v>
+      </c>
+      <c r="J39" s="1">
+        <v>68607</v>
+      </c>
+      <c r="K39" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1453,11 +2091,26 @@
       <c r="E40" s="1">
         <v>16</v>
       </c>
-      <c r="F40" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>7800</v>
+      </c>
+      <c r="H40" s="1">
+        <v>48085</v>
+      </c>
+      <c r="I40" s="1">
+        <v>65000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>57000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1473,11 +2126,26 @@
       <c r="E41" s="1">
         <v>16</v>
       </c>
-      <c r="F41" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>111000</v>
+      </c>
+      <c r="H41" s="1">
+        <v>121000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>108000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>74738</v>
+      </c>
+      <c r="K41" s="1">
+        <v>50476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1493,11 +2161,26 @@
       <c r="E42" s="1">
         <v>16</v>
       </c>
-      <c r="F42" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="1">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>83000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>78000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>67667</v>
+      </c>
+      <c r="J42" s="1">
+        <v>76000</v>
+      </c>
+      <c r="K42" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1513,11 +2196,26 @@
       <c r="E43" s="1">
         <v>8</v>
       </c>
-      <c r="F43" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>240000</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1533,11 +2231,26 @@
       <c r="E44" s="1">
         <v>8</v>
       </c>
-      <c r="F44" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>263000</v>
+      </c>
+      <c r="H44" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J44" s="1">
+        <v>204000</v>
+      </c>
+      <c r="K44" s="1">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1553,11 +2266,26 @@
       <c r="E45" s="1">
         <v>8</v>
       </c>
-      <c r="F45" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -1573,11 +2301,26 @@
       <c r="E46" s="1">
         <v>8</v>
       </c>
-      <c r="F46" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -1593,11 +2336,26 @@
       <c r="E47" s="1">
         <v>8</v>
       </c>
-      <c r="F47" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>112000</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -1613,11 +2371,26 @@
       <c r="E48" s="1">
         <v>8</v>
       </c>
-      <c r="F48" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -1633,11 +2406,26 @@
       <c r="E49" s="1">
         <v>8</v>
       </c>
-      <c r="F49" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>137000</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1653,11 +2441,26 @@
       <c r="E50" s="1">
         <v>8</v>
       </c>
-      <c r="F50" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="1">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>205000</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -1673,11 +2476,26 @@
       <c r="E51" s="1">
         <v>8</v>
       </c>
-      <c r="F51" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -1693,11 +2511,26 @@
       <c r="E52" s="1">
         <v>16</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1713,11 +2546,26 @@
       <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1733,11 +2581,26 @@
       <c r="E54" s="1">
         <v>8</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <v>210000</v>
+      </c>
+      <c r="H54" s="1">
+        <v>248000</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1753,11 +2616,26 @@
       <c r="E55" s="1">
         <v>8</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1">
+        <v>170000</v>
+      </c>
+      <c r="H55" s="1">
+        <v>208000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>212650</v>
+      </c>
+      <c r="J55" s="1">
+        <v>174008</v>
+      </c>
+      <c r="K55" s="1">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -1773,11 +2651,26 @@
       <c r="E56" s="1">
         <v>8</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <v>167500</v>
+      </c>
+      <c r="H56" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>176000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>300000</v>
+      </c>
+      <c r="K56" s="1">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -1793,11 +2686,26 @@
       <c r="E57" s="1">
         <v>8</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1">
+        <v>166000</v>
+      </c>
+      <c r="H57" s="1">
+        <v>114000</v>
+      </c>
+      <c r="I57" s="1">
+        <v>180000</v>
+      </c>
+      <c r="J57" s="1">
+        <v>214000</v>
+      </c>
+      <c r="K57" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1813,11 +2721,26 @@
       <c r="E58" s="1">
         <v>8</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1">
+        <v>58000</v>
+      </c>
+      <c r="H58" s="1">
+        <v>233000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>78000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>211111</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1833,11 +2756,26 @@
       <c r="E59" s="1">
         <v>12</v>
       </c>
-      <c r="F59" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>28072</v>
+      </c>
+      <c r="H59" s="1">
+        <v>43000</v>
+      </c>
+      <c r="I59" s="1">
+        <v>53281</v>
+      </c>
+      <c r="J59" s="1">
+        <v>61175</v>
+      </c>
+      <c r="K59" s="1">
+        <v>75583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1853,11 +2791,26 @@
       <c r="E60" s="1">
         <v>12</v>
       </c>
-      <c r="F60" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <v>54524</v>
+      </c>
+      <c r="H60" s="1">
+        <v>64154</v>
+      </c>
+      <c r="I60" s="1">
+        <v>55000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>75500</v>
+      </c>
+      <c r="K60" s="1">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1873,11 +2826,26 @@
       <c r="E61" s="1">
         <v>12</v>
       </c>
-      <c r="F61" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="1">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
+        <v>50200</v>
+      </c>
+      <c r="H61" s="1">
+        <v>119000</v>
+      </c>
+      <c r="I61" s="1">
+        <v>77853</v>
+      </c>
+      <c r="J61" s="1">
+        <v>60774</v>
+      </c>
+      <c r="K61" s="1">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1893,11 +2861,26 @@
       <c r="E62" s="1">
         <v>12</v>
       </c>
-      <c r="F62" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="1">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>86318</v>
+      </c>
+      <c r="H62" s="1">
+        <v>35000</v>
+      </c>
+      <c r="I62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J62" s="1">
+        <v>145000</v>
+      </c>
+      <c r="K62" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -1913,11 +2896,26 @@
       <c r="E63" s="1">
         <v>12</v>
       </c>
-      <c r="F63" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="1">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>77000</v>
+      </c>
+      <c r="H63" s="1">
+        <v>62000</v>
+      </c>
+      <c r="I63" s="1">
+        <v>127285</v>
+      </c>
+      <c r="J63" s="1">
+        <v>87700</v>
+      </c>
+      <c r="K63" s="1">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -1933,11 +2931,26 @@
       <c r="E64" s="1">
         <v>12</v>
       </c>
-      <c r="F64" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="1">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1">
+        <v>7000</v>
+      </c>
+      <c r="H64" s="1">
+        <v>8545</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2100</v>
+      </c>
+      <c r="K64" s="1">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -1953,11 +2966,26 @@
       <c r="E65" s="1">
         <v>12</v>
       </c>
-      <c r="F65" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="1">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -1973,11 +3001,26 @@
       <c r="E66" s="1">
         <v>12</v>
       </c>
-      <c r="F66" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="1">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1">
+        <v>64276</v>
+      </c>
+      <c r="H66" s="1">
+        <v>26962</v>
+      </c>
+      <c r="I66" s="1">
+        <v>40800</v>
+      </c>
+      <c r="J66" s="1">
+        <v>41479</v>
+      </c>
+      <c r="K66" s="1">
+        <v>56041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -1993,11 +3036,26 @@
       <c r="E67" s="1">
         <v>12</v>
       </c>
-      <c r="F67" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="1">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1">
+        <v>24000</v>
+      </c>
+      <c r="H67" s="1">
+        <v>70368</v>
+      </c>
+      <c r="I67" s="1">
+        <v>59606</v>
+      </c>
+      <c r="J67" s="1">
+        <v>24000</v>
+      </c>
+      <c r="K67" s="1">
+        <v>18216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2013,11 +3071,26 @@
       <c r="E68" s="1">
         <v>8</v>
       </c>
-      <c r="F68" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="1">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2033,11 +3106,26 @@
       <c r="E69" s="1">
         <v>8</v>
       </c>
-      <c r="F69" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="1">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2053,11 +3141,26 @@
       <c r="E70" s="1">
         <v>8</v>
       </c>
-      <c r="F70" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="1">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2073,11 +3176,26 @@
       <c r="E71" s="1">
         <v>8</v>
       </c>
-      <c r="F71" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="1">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -2093,11 +3211,26 @@
       <c r="E72" s="1">
         <v>20</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -2113,11 +3246,26 @@
       <c r="E73" s="1">
         <v>16</v>
       </c>
-      <c r="F73" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="1">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6697</v>
+      </c>
+      <c r="H73" s="1">
+        <v>440</v>
+      </c>
+      <c r="I73" s="1">
+        <v>6300</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2767</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>17</v>
       </c>
@@ -2133,11 +3281,26 @@
       <c r="E74" s="1">
         <v>16</v>
       </c>
-      <c r="F74" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="1">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -2153,11 +3316,26 @@
       <c r="E75" s="1">
         <v>16</v>
       </c>
-      <c r="F75" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="1">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1">
+        <v>16650</v>
+      </c>
+      <c r="H75" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I75" s="1">
+        <v>13392</v>
+      </c>
+      <c r="J75" s="1">
+        <v>4500</v>
+      </c>
+      <c r="K75" s="1">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -2173,11 +3351,26 @@
       <c r="E76" s="1">
         <v>16</v>
       </c>
-      <c r="F76" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="1">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H76" s="1">
+        <v>8635</v>
+      </c>
+      <c r="I76" s="1">
+        <v>58277</v>
+      </c>
+      <c r="J76" s="1">
+        <v>17000</v>
+      </c>
+      <c r="K76" s="1">
+        <v>56980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2193,11 +3386,26 @@
       <c r="E77" s="1">
         <v>16</v>
       </c>
-      <c r="F77" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77" s="1">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1">
+        <v>36041</v>
+      </c>
+      <c r="H77" s="1">
+        <v>37000</v>
+      </c>
+      <c r="I77" s="1">
+        <v>35000</v>
+      </c>
+      <c r="J77" s="1">
+        <v>55361</v>
+      </c>
+      <c r="K77" s="1">
+        <v>38892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>17</v>
       </c>
@@ -2213,11 +3421,26 @@
       <c r="E78" s="1">
         <v>16</v>
       </c>
-      <c r="F78" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F78" s="1">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1">
+        <v>46000</v>
+      </c>
+      <c r="H78" s="1">
+        <v>74000</v>
+      </c>
+      <c r="I78" s="1">
+        <v>42966</v>
+      </c>
+      <c r="J78" s="1">
+        <v>118000</v>
+      </c>
+      <c r="K78" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
@@ -2233,11 +3456,26 @@
       <c r="E79" s="1">
         <v>16</v>
       </c>
-      <c r="F79" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79" s="1">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1">
+        <v>110000</v>
+      </c>
+      <c r="H79" s="1">
+        <v>51000</v>
+      </c>
+      <c r="I79" s="1">
+        <v>73500</v>
+      </c>
+      <c r="J79" s="1">
+        <v>48980</v>
+      </c>
+      <c r="K79" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -2253,11 +3491,26 @@
       <c r="E80" s="1">
         <v>12</v>
       </c>
-      <c r="F80" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F80" s="1">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1">
+        <v>100400</v>
+      </c>
+      <c r="H80" s="1">
+        <v>76700</v>
+      </c>
+      <c r="I80" s="1">
+        <v>25533</v>
+      </c>
+      <c r="J80" s="1">
+        <v>82000</v>
+      </c>
+      <c r="K80" s="1">
+        <v>58242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
@@ -2273,11 +3526,26 @@
       <c r="E81" s="1">
         <v>12</v>
       </c>
-      <c r="F81" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81" s="1">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H81" s="1">
+        <v>71000</v>
+      </c>
+      <c r="I81" s="1">
+        <v>73417</v>
+      </c>
+      <c r="J81" s="1">
+        <v>95223</v>
+      </c>
+      <c r="K81" s="1">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -2293,11 +3561,26 @@
       <c r="E82" s="1">
         <v>12</v>
       </c>
-      <c r="F82" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" s="1">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>35500</v>
+      </c>
+      <c r="H82" s="1">
+        <v>68800</v>
+      </c>
+      <c r="I82" s="1">
+        <v>67000</v>
+      </c>
+      <c r="J82" s="1">
+        <v>82000</v>
+      </c>
+      <c r="K82" s="1">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -2313,11 +3596,26 @@
       <c r="E83" s="1">
         <v>12</v>
       </c>
-      <c r="F83" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" s="1">
+        <v>5</v>
+      </c>
+      <c r="G83" s="1">
+        <v>90000</v>
+      </c>
+      <c r="H83" s="1">
+        <v>152000</v>
+      </c>
+      <c r="I83" s="1">
+        <v>108000</v>
+      </c>
+      <c r="J83" s="1">
+        <v>95300</v>
+      </c>
+      <c r="K83" s="1">
+        <v>81067</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
@@ -2333,11 +3631,26 @@
       <c r="E84" s="1">
         <v>12</v>
       </c>
-      <c r="F84" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F84" s="1">
+        <v>5</v>
+      </c>
+      <c r="G84" s="1">
+        <v>103098</v>
+      </c>
+      <c r="H84" s="1">
+        <v>105950</v>
+      </c>
+      <c r="I84" s="1">
+        <v>82000</v>
+      </c>
+      <c r="J84" s="1">
+        <v>125000</v>
+      </c>
+      <c r="K84" s="1">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>19</v>
       </c>
@@ -2353,11 +3666,26 @@
       <c r="E85" s="1">
         <v>12</v>
       </c>
-      <c r="F85" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" s="1">
+        <v>5</v>
+      </c>
+      <c r="G85" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H85" s="1">
+        <v>11120</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1289</v>
+      </c>
+      <c r="J85" s="1">
+        <v>10100</v>
+      </c>
+      <c r="K85" s="1">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>19</v>
       </c>
@@ -2373,11 +3701,26 @@
       <c r="E86" s="1">
         <v>12</v>
       </c>
-      <c r="F86" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86" s="1">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
@@ -2393,11 +3736,26 @@
       <c r="E87" s="1">
         <v>12</v>
       </c>
-      <c r="F87" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
+      <c r="G87" s="1">
+        <v>38501</v>
+      </c>
+      <c r="H87" s="1">
+        <v>18000</v>
+      </c>
+      <c r="I87" s="1">
+        <v>40907</v>
+      </c>
+      <c r="J87" s="1">
+        <v>28000</v>
+      </c>
+      <c r="K87" s="1">
+        <v>36577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -2413,11 +3771,26 @@
       <c r="E88" s="1">
         <v>12</v>
       </c>
-      <c r="F88" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F88" s="1">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>32216</v>
+      </c>
+      <c r="H88" s="1">
+        <v>49000</v>
+      </c>
+      <c r="I88" s="1">
+        <v>35336</v>
+      </c>
+      <c r="J88" s="1">
+        <v>27000</v>
+      </c>
+      <c r="K88" s="1">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
@@ -2433,11 +3806,26 @@
       <c r="E89" s="1">
         <v>8</v>
       </c>
-      <c r="F89" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" s="1">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -2453,11 +3841,26 @@
       <c r="E90" s="1">
         <v>8</v>
       </c>
-      <c r="F90" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1">
+        <v>100039</v>
+      </c>
+      <c r="H90" s="1">
+        <v>119515</v>
+      </c>
+      <c r="I90" s="1">
+        <v>117525</v>
+      </c>
+      <c r="J90" s="1">
+        <v>181899</v>
+      </c>
+      <c r="K90" s="1">
+        <v>145633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
@@ -2473,11 +3876,26 @@
       <c r="E91" s="1">
         <v>8</v>
       </c>
-      <c r="F91" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" s="1">
+        <v>5</v>
+      </c>
+      <c r="G91" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H91" s="1">
+        <v>120120</v>
+      </c>
+      <c r="I91" s="1">
+        <v>131854</v>
+      </c>
+      <c r="J91" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K91" s="1">
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>20</v>
       </c>
@@ -2493,11 +3911,26 @@
       <c r="E92" s="1">
         <v>8</v>
       </c>
-      <c r="F92" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F92" s="1">
+        <v>5</v>
+      </c>
+      <c r="G92" s="1">
+        <v>130000</v>
+      </c>
+      <c r="H92" s="1">
+        <v>183000</v>
+      </c>
+      <c r="I92" s="1">
+        <v>128500</v>
+      </c>
+      <c r="J92" s="1">
+        <v>165000</v>
+      </c>
+      <c r="K92" s="1">
+        <v>187683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
@@ -2513,11 +3946,26 @@
       <c r="E93" s="1">
         <v>8</v>
       </c>
-      <c r="F93" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F93" s="1">
+        <v>5</v>
+      </c>
+      <c r="G93" s="1">
+        <v>155000</v>
+      </c>
+      <c r="H93" s="1">
+        <v>169000</v>
+      </c>
+      <c r="I93" s="1">
+        <v>126107</v>
+      </c>
+      <c r="J93" s="1">
+        <v>140600</v>
+      </c>
+      <c r="K93" s="1">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -2533,11 +3981,26 @@
       <c r="E94" s="1">
         <v>8</v>
       </c>
-      <c r="F94" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F94" s="1">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1">
+        <v>149500</v>
+      </c>
+      <c r="H94" s="1">
+        <v>186000</v>
+      </c>
+      <c r="I94" s="1">
+        <v>148000</v>
+      </c>
+      <c r="J94" s="1">
+        <v>159000</v>
+      </c>
+      <c r="K94" s="1">
+        <v>168905</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -2553,11 +4016,26 @@
       <c r="E95" s="1">
         <v>8</v>
       </c>
-      <c r="F95" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F95" s="1">
+        <v>5</v>
+      </c>
+      <c r="G95" s="1">
+        <v>137000</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -2573,11 +4051,26 @@
       <c r="E96" s="1">
         <v>8</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>22</v>
       </c>
@@ -2593,11 +4086,26 @@
       <c r="E97" s="1">
         <v>8</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="1">
+        <v>150215</v>
+      </c>
+      <c r="H97" s="1">
+        <v>329483</v>
+      </c>
+      <c r="I97" s="1">
+        <v>157673</v>
+      </c>
+      <c r="J97" s="1">
+        <v>155000</v>
+      </c>
+      <c r="K97" s="1">
+        <v>156477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>22</v>
       </c>
@@ -2613,11 +4121,26 @@
       <c r="E98" s="1">
         <v>8</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1">
+        <v>127422</v>
+      </c>
+      <c r="H98" s="1">
+        <v>126000</v>
+      </c>
+      <c r="I98" s="1">
+        <v>84000</v>
+      </c>
+      <c r="J98" s="1">
+        <v>121930</v>
+      </c>
+      <c r="K98" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>22</v>
       </c>
@@ -2633,11 +4156,26 @@
       <c r="E99" s="1">
         <v>8</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1">
+        <v>130000</v>
+      </c>
+      <c r="H99" s="1">
+        <v>270000</v>
+      </c>
+      <c r="I99" s="1">
+        <v>130000</v>
+      </c>
+      <c r="J99" s="1">
+        <v>178340</v>
+      </c>
+      <c r="K99" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>22</v>
       </c>
@@ -2653,11 +4191,26 @@
       <c r="E100" s="1">
         <v>8</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="1">
+        <v>125000</v>
+      </c>
+      <c r="H100" s="1">
+        <v>220000</v>
+      </c>
+      <c r="I100" s="1">
+        <v>146000</v>
+      </c>
+      <c r="J100" s="1">
+        <v>158510</v>
+      </c>
+      <c r="K100" s="1">
+        <v>183000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
@@ -2673,11 +4226,26 @@
       <c r="E101" s="1">
         <v>8</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1">
+        <v>169888</v>
+      </c>
+      <c r="H101" s="1">
+        <v>170000</v>
+      </c>
+      <c r="I101" s="1">
+        <v>126806</v>
+      </c>
+      <c r="J101" s="1">
+        <v>106321</v>
+      </c>
+      <c r="K101" s="1">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>22</v>
       </c>
@@ -2693,11 +4261,26 @@
       <c r="E102" s="1">
         <v>8</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1">
+        <v>190000</v>
+      </c>
+      <c r="H102" s="1">
+        <v>214000</v>
+      </c>
+      <c r="I102" s="1">
+        <v>176000</v>
+      </c>
+      <c r="J102" s="1">
+        <v>190000</v>
+      </c>
+      <c r="K102" s="1">
+        <v>163000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>22</v>
       </c>
@@ -2713,11 +4296,26 @@
       <c r="E103" s="1">
         <v>8</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="1">
+        <v>282500</v>
+      </c>
+      <c r="H103" s="1">
+        <v>199200</v>
+      </c>
+      <c r="I103" s="1">
+        <v>223000</v>
+      </c>
+      <c r="J103" s="1">
+        <v>187000</v>
+      </c>
+      <c r="K103" s="1">
+        <v>203000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>22</v>
       </c>
@@ -2733,11 +4331,26 @@
       <c r="E104" s="1">
         <v>8</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1">
+        <v>209400</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>22</v>
       </c>
@@ -2753,11 +4366,26 @@
       <c r="E105" s="1">
         <v>8</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>22</v>
       </c>
@@ -2773,11 +4401,26 @@
       <c r="E106" s="1">
         <v>8</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1">
+        <v>247411</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>23</v>
       </c>
@@ -2793,11 +4436,26 @@
       <c r="E107" s="1">
         <v>8</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>23</v>
       </c>
@@ -2813,11 +4471,26 @@
       <c r="E108" s="1">
         <v>8</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>23</v>
       </c>
@@ -2833,11 +4506,26 @@
       <c r="E109" s="1">
         <v>8</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>23</v>
       </c>
@@ -2853,11 +4541,26 @@
       <c r="E110" s="1">
         <v>8</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>23</v>
       </c>
@@ -2873,11 +4576,26 @@
       <c r="E111" s="1">
         <v>8</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -2893,11 +4611,26 @@
       <c r="E112" s="1">
         <v>8</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>23</v>
       </c>
@@ -2913,11 +4646,26 @@
       <c r="E113" s="1">
         <v>8</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>23</v>
       </c>
@@ -2933,11 +4681,26 @@
       <c r="E114" s="1">
         <v>8</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>23</v>
       </c>
@@ -2953,11 +4716,26 @@
       <c r="E115" s="1">
         <v>8</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -2973,11 +4751,26 @@
       <c r="E116" s="1">
         <v>8</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>23</v>
       </c>
@@ -2993,11 +4786,26 @@
       <c r="E117" s="1">
         <v>8</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>23</v>
       </c>
@@ -3013,11 +4821,26 @@
       <c r="E118" s="1">
         <v>8</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>23</v>
       </c>
@@ -3033,11 +4856,26 @@
       <c r="E119" s="1">
         <v>8</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
@@ -3053,11 +4891,26 @@
       <c r="E120" s="1">
         <v>8</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>24</v>
       </c>
@@ -3073,11 +4926,26 @@
       <c r="E121" s="1">
         <v>8</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="1">
+        <v>42000</v>
+      </c>
+      <c r="H121" s="1">
+        <v>139342</v>
+      </c>
+      <c r="I121" s="1">
+        <v>163000</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>24</v>
       </c>
@@ -3093,11 +4961,26 @@
       <c r="E122" s="1">
         <v>8</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -3113,11 +4996,26 @@
       <c r="E123" s="1">
         <v>8</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -3133,11 +5031,26 @@
       <c r="E124" s="1">
         <v>8</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="1">
+        <v>136000</v>
+      </c>
+      <c r="H124" s="1">
+        <v>92000</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -3153,11 +5066,26 @@
       <c r="E125" s="1">
         <v>8</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
@@ -3173,11 +5101,26 @@
       <c r="E126" s="1">
         <v>8</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="1">
+        <v>167000</v>
+      </c>
+      <c r="H126" s="1">
+        <v>266000</v>
+      </c>
+      <c r="I126" s="1">
+        <v>215500</v>
+      </c>
+      <c r="J126" s="1">
+        <v>120000</v>
+      </c>
+      <c r="K126" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>25</v>
       </c>
@@ -3193,11 +5136,26 @@
       <c r="E127" s="1">
         <v>8</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I127" s="1">
+        <v>135000</v>
+      </c>
+      <c r="J127" s="1">
+        <v>150000</v>
+      </c>
+      <c r="K127" s="1">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>25</v>
       </c>
@@ -3213,11 +5171,26 @@
       <c r="E128" s="1">
         <v>8</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="1">
+        <v>203000</v>
+      </c>
+      <c r="H128" s="1">
+        <v>159000</v>
+      </c>
+      <c r="I128" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J128" s="1">
+        <v>240000</v>
+      </c>
+      <c r="K128" s="1">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>26</v>
       </c>
@@ -3233,11 +5206,26 @@
       <c r="E129" s="1">
         <v>8</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>26</v>
       </c>
@@ -3253,11 +5241,26 @@
       <c r="E130" s="1">
         <v>8</v>
       </c>
-      <c r="F130" s="4">
+      <c r="F130" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="1">
+        <v>128000</v>
+      </c>
+      <c r="H130" s="1">
+        <v>156477</v>
+      </c>
+      <c r="I130" s="1">
+        <v>87600</v>
+      </c>
+      <c r="J130" s="1">
+        <v>173603</v>
+      </c>
+      <c r="K130" s="1">
+        <v>251795</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>26</v>
       </c>
@@ -3273,11 +5276,26 @@
       <c r="E131" s="1">
         <v>8</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="1">
+        <v>242600</v>
+      </c>
+      <c r="H131" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I131" s="1">
+        <v>107010</v>
+      </c>
+      <c r="J131" s="1">
+        <v>116533</v>
+      </c>
+      <c r="K131" s="1">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
@@ -3293,11 +5311,26 @@
       <c r="E132" s="1">
         <v>8</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="1">
+        <v>118225</v>
+      </c>
+      <c r="H132" s="1">
+        <v>153183</v>
+      </c>
+      <c r="I132" s="1">
+        <v>95000</v>
+      </c>
+      <c r="J132" s="1">
+        <v>248000</v>
+      </c>
+      <c r="K132" s="1">
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>26</v>
       </c>
@@ -3313,11 +5346,26 @@
       <c r="E133" s="1">
         <v>8</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H133" s="1">
+        <v>158510</v>
+      </c>
+      <c r="I133" s="1">
+        <v>130000</v>
+      </c>
+      <c r="J133" s="1">
+        <v>200000</v>
+      </c>
+      <c r="K133" s="1">
+        <v>236000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>26</v>
       </c>
@@ -3333,11 +5381,26 @@
       <c r="E134" s="1">
         <v>8</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="1">
+        <v>126806</v>
+      </c>
+      <c r="H134" s="1">
+        <v>117000</v>
+      </c>
+      <c r="I134" s="1">
+        <v>113000</v>
+      </c>
+      <c r="J134" s="1">
+        <v>120000</v>
+      </c>
+      <c r="K134" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>26</v>
       </c>
@@ -3353,11 +5416,26 @@
       <c r="E135" s="1">
         <v>8</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="1">
+        <v>214000</v>
+      </c>
+      <c r="H135" s="1">
+        <v>190000</v>
+      </c>
+      <c r="I135" s="1">
+        <v>190000</v>
+      </c>
+      <c r="J135" s="1">
+        <v>163000</v>
+      </c>
+      <c r="K135" s="1">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>26</v>
       </c>
@@ -3373,11 +5451,26 @@
       <c r="E136" s="1">
         <v>8</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="1">
+        <v>209000</v>
+      </c>
+      <c r="H136" s="1">
+        <v>183000</v>
+      </c>
+      <c r="I136" s="1">
+        <v>211000</v>
+      </c>
+      <c r="J136" s="1">
+        <v>173000</v>
+      </c>
+      <c r="K136" s="1">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -3393,11 +5486,26 @@
       <c r="E137" s="1">
         <v>8</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="1">
+        <v>309500</v>
+      </c>
+      <c r="H137" s="1">
+        <v>172910</v>
+      </c>
+      <c r="I137" s="1">
+        <v>170000</v>
+      </c>
+      <c r="J137" s="1">
+        <v>184371</v>
+      </c>
+      <c r="K137" s="1">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>26</v>
       </c>
@@ -3413,11 +5521,26 @@
       <c r="E138" s="1">
         <v>8</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="1">
+        <v>139381</v>
+      </c>
+      <c r="H138" s="1">
+        <v>242000</v>
+      </c>
+      <c r="I138" s="1">
+        <v>170000</v>
+      </c>
+      <c r="J138" s="1">
+        <v>193900</v>
+      </c>
+      <c r="K138" s="1">
+        <v>148078</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>26</v>
       </c>
@@ -3433,11 +5556,26 @@
       <c r="E139" s="1">
         <v>8</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="1">
+        <v>50800</v>
+      </c>
+      <c r="H139" s="1">
+        <v>174000</v>
+      </c>
+      <c r="I139" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J139" s="1">
+        <v>223000</v>
+      </c>
+      <c r="K139" s="1">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>27</v>
       </c>
@@ -3453,11 +5591,26 @@
       <c r="E140" s="1">
         <v>8</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="1">
+        <v>159610</v>
+      </c>
+      <c r="H140" s="1">
+        <v>136000</v>
+      </c>
+      <c r="I140" s="1">
+        <v>147000</v>
+      </c>
+      <c r="J140" s="1">
+        <v>135800</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -3473,11 +5626,26 @@
       <c r="E141" s="1">
         <v>8</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -3493,11 +5661,26 @@
       <c r="E142" s="1">
         <v>8</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="1">
+        <v>136000</v>
+      </c>
+      <c r="H142" s="1">
+        <v>163000</v>
+      </c>
+      <c r="I142" s="1">
+        <v>108000</v>
+      </c>
+      <c r="J142" s="1">
+        <v>42000</v>
+      </c>
+      <c r="K142" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -3513,11 +5696,26 @@
       <c r="E143" s="1">
         <v>8</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="1">
+        <v>158000</v>
+      </c>
+      <c r="H143" s="1">
+        <v>140000</v>
+      </c>
+      <c r="I143" s="1">
+        <v>147500</v>
+      </c>
+      <c r="J143" s="1">
+        <v>155400</v>
+      </c>
+      <c r="K143" s="1">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -3533,11 +5731,26 @@
       <c r="E144" s="1">
         <v>8</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="1">
+        <v>105000</v>
+      </c>
+      <c r="H144" s="1">
+        <v>106000</v>
+      </c>
+      <c r="I144" s="1">
+        <v>124130</v>
+      </c>
+      <c r="J144" s="1">
+        <v>105000</v>
+      </c>
+      <c r="K144" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -3553,11 +5766,26 @@
       <c r="E145" s="1">
         <v>8</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="1">
+        <v>37000</v>
+      </c>
+      <c r="H145" s="1">
+        <v>145000</v>
+      </c>
+      <c r="I145" s="1">
+        <v>233000</v>
+      </c>
+      <c r="J145" s="1">
+        <v>166207</v>
+      </c>
+      <c r="K145" s="1">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -3573,11 +5801,26 @@
       <c r="E146" s="1">
         <v>8</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="1">
+        <v>117000</v>
+      </c>
+      <c r="H146" s="1">
+        <v>74000</v>
+      </c>
+      <c r="I146" s="1">
+        <v>136000</v>
+      </c>
+      <c r="J146" s="1">
+        <v>53000</v>
+      </c>
+      <c r="K146" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>29</v>
       </c>
@@ -3593,11 +5836,26 @@
       <c r="E147" s="1">
         <v>12</v>
       </c>
-      <c r="F147" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1600</v>
+      </c>
+      <c r="H147" s="1">
+        <v>6500</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>29</v>
       </c>
@@ -3613,11 +5871,26 @@
       <c r="E148" s="1">
         <v>12</v>
       </c>
-      <c r="F148" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F148" s="1">
+        <v>5</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>29</v>
       </c>
@@ -3633,11 +5906,26 @@
       <c r="E149" s="1">
         <v>12</v>
       </c>
-      <c r="F149" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F149" s="1">
+        <v>5</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>29</v>
       </c>
@@ -3653,11 +5941,26 @@
       <c r="E150" s="1">
         <v>12</v>
       </c>
-      <c r="F150" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F150" s="1">
+        <v>5</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>29</v>
       </c>
@@ -3673,11 +5976,26 @@
       <c r="E151" s="1">
         <v>12</v>
       </c>
-      <c r="F151" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F151" s="1">
+        <v>5</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>29</v>
       </c>
@@ -3693,11 +6011,26 @@
       <c r="E152" s="1">
         <v>12</v>
       </c>
-      <c r="F152" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F152" s="1">
+        <v>5</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>30</v>
       </c>
@@ -3713,11 +6046,26 @@
       <c r="E153" s="1">
         <v>8</v>
       </c>
-      <c r="F153" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F153" s="1">
+        <v>5</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
@@ -3733,11 +6081,26 @@
       <c r="E154" s="1">
         <v>8</v>
       </c>
-      <c r="F154" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F154" s="1">
+        <v>5</v>
+      </c>
+      <c r="G154" s="1">
+        <v>38900</v>
+      </c>
+      <c r="H154" s="1">
+        <v>114500</v>
+      </c>
+      <c r="I154" s="1">
+        <v>137405</v>
+      </c>
+      <c r="J154" s="1">
+        <v>216000</v>
+      </c>
+      <c r="K154" s="1">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>30</v>
       </c>
@@ -3753,11 +6116,26 @@
       <c r="E155" s="1">
         <v>8</v>
       </c>
-      <c r="F155" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
+      <c r="G155" s="1">
+        <v>130000</v>
+      </c>
+      <c r="H155" s="1">
+        <v>175000</v>
+      </c>
+      <c r="I155" s="1">
+        <v>120120</v>
+      </c>
+      <c r="J155" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K155" s="1">
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>30</v>
       </c>
@@ -3773,11 +6151,26 @@
       <c r="E156" s="1">
         <v>8</v>
       </c>
-      <c r="F156" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F156" s="1">
+        <v>5</v>
+      </c>
+      <c r="G156" s="1">
+        <v>183000</v>
+      </c>
+      <c r="H156" s="1">
+        <v>187683</v>
+      </c>
+      <c r="I156" s="1">
+        <v>142108</v>
+      </c>
+      <c r="J156" s="1">
+        <v>201689</v>
+      </c>
+      <c r="K156" s="1">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>30</v>
       </c>
@@ -3793,11 +6186,26 @@
       <c r="E157" s="1">
         <v>8</v>
       </c>
-      <c r="F157" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F157" s="1">
+        <v>5</v>
+      </c>
+      <c r="G157" s="1">
+        <v>104000</v>
+      </c>
+      <c r="H157" s="1">
+        <v>114000</v>
+      </c>
+      <c r="I157" s="1">
+        <v>165000</v>
+      </c>
+      <c r="J157" s="1">
+        <v>163237</v>
+      </c>
+      <c r="K157" s="1">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>30</v>
       </c>
@@ -3813,11 +6221,26 @@
       <c r="E158" s="1">
         <v>8</v>
       </c>
-      <c r="F158" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F158" s="1">
+        <v>5</v>
+      </c>
+      <c r="G158" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H158" s="1">
+        <v>160000</v>
+      </c>
+      <c r="I158" s="1">
+        <v>201000</v>
+      </c>
+      <c r="J158" s="1">
+        <v>177546</v>
+      </c>
+      <c r="K158" s="1">
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>30</v>
       </c>
@@ -3833,11 +6256,26 @@
       <c r="E159" s="1">
         <v>8</v>
       </c>
-      <c r="F159" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F159" s="1">
+        <v>5</v>
+      </c>
+      <c r="G159" s="1">
+        <v>119000</v>
+      </c>
+      <c r="H159" s="1">
+        <v>258000</v>
+      </c>
+      <c r="I159" s="1">
+        <v>140228</v>
+      </c>
+      <c r="J159" s="1">
+        <v>157000</v>
+      </c>
+      <c r="K159" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>30</v>
       </c>
@@ -3853,11 +6291,26 @@
       <c r="E160" s="1">
         <v>8</v>
       </c>
-      <c r="F160" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F160" s="1">
+        <v>5</v>
+      </c>
+      <c r="G160" s="1">
+        <v>12345</v>
+      </c>
+      <c r="H160" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I160" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J160" s="1">
+        <v>118000</v>
+      </c>
+      <c r="K160" s="1">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>30</v>
       </c>
@@ -3873,11 +6326,26 @@
       <c r="E161" s="1">
         <v>8</v>
       </c>
-      <c r="F161" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F161" s="1">
+        <v>5</v>
+      </c>
+      <c r="G161" s="1">
+        <v>190000</v>
+      </c>
+      <c r="H161" s="1">
+        <v>160000</v>
+      </c>
+      <c r="I161" s="1">
+        <v>173979</v>
+      </c>
+      <c r="J161" s="1">
+        <v>120000</v>
+      </c>
+      <c r="K161" s="1">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>30</v>
       </c>
@@ -3893,11 +6361,26 @@
       <c r="E162" s="1">
         <v>8</v>
       </c>
-      <c r="F162" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F162" s="1">
+        <v>5</v>
+      </c>
+      <c r="G162" s="1">
+        <v>170000</v>
+      </c>
+      <c r="H162" s="1">
+        <v>174000</v>
+      </c>
+      <c r="I162" s="1">
+        <v>216000</v>
+      </c>
+      <c r="J162" s="1">
+        <v>130000</v>
+      </c>
+      <c r="K162" s="1">
+        <v>60550</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>30</v>
       </c>
@@ -3913,11 +6396,26 @@
       <c r="E163" s="1">
         <v>8</v>
       </c>
-      <c r="F163" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F163" s="1">
+        <v>5</v>
+      </c>
+      <c r="G163" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H163" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>0</v>
+      </c>
+      <c r="K163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>31</v>
       </c>
@@ -3933,11 +6431,26 @@
       <c r="E164" s="1">
         <v>8</v>
       </c>
-      <c r="F164" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F164" s="1">
+        <v>5</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>31</v>
       </c>
@@ -3953,11 +6466,26 @@
       <c r="E165" s="1">
         <v>8</v>
       </c>
-      <c r="F165" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F165" s="1">
+        <v>5</v>
+      </c>
+      <c r="G165" s="1">
+        <v>133000</v>
+      </c>
+      <c r="H165" s="1">
+        <v>142108</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>32</v>
       </c>
@@ -3973,11 +6501,26 @@
       <c r="E166" s="1">
         <v>8</v>
       </c>
-      <c r="F166" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F166" s="1">
+        <v>5</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>32</v>
       </c>
@@ -3993,11 +6536,26 @@
       <c r="E167" s="1">
         <v>8</v>
       </c>
-      <c r="F167" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F167" s="1">
+        <v>5</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>32</v>
       </c>
@@ -4013,11 +6571,26 @@
       <c r="E168" s="1">
         <v>8</v>
       </c>
-      <c r="F168" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F168" s="1">
+        <v>5</v>
+      </c>
+      <c r="G168" s="1">
+        <v>103000</v>
+      </c>
+      <c r="H168" s="1">
+        <v>164000</v>
+      </c>
+      <c r="I168" s="1">
+        <v>103000</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>32</v>
       </c>
@@ -4033,11 +6606,26 @@
       <c r="E169" s="1">
         <v>8</v>
       </c>
-      <c r="F169" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F169" s="1">
+        <v>5</v>
+      </c>
+      <c r="G169" s="1">
+        <v>191150</v>
+      </c>
+      <c r="H169" s="1">
+        <v>129000</v>
+      </c>
+      <c r="I169" s="1">
+        <v>125000</v>
+      </c>
+      <c r="J169" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K169" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>32</v>
       </c>
@@ -4053,11 +6641,26 @@
       <c r="E170" s="1">
         <v>8</v>
       </c>
-      <c r="F170" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F170" s="1">
+        <v>5</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>32</v>
       </c>
@@ -4073,11 +6676,26 @@
       <c r="E171" s="1">
         <v>8</v>
       </c>
-      <c r="F171" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F171" s="1">
+        <v>5</v>
+      </c>
+      <c r="G171" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H171" s="1">
+        <v>102000</v>
+      </c>
+      <c r="I171" s="1">
+        <v>177105</v>
+      </c>
+      <c r="J171" s="1">
+        <v>178000</v>
+      </c>
+      <c r="K171" s="1">
+        <v>206000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>33</v>
       </c>
@@ -4093,11 +6711,26 @@
       <c r="E172" s="1">
         <v>12</v>
       </c>
-      <c r="F172" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="1">
+        <v>5</v>
+      </c>
+      <c r="G172" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H172" s="1">
+        <v>5038</v>
+      </c>
+      <c r="I172" s="1">
+        <v>41000</v>
+      </c>
+      <c r="J172" s="1">
+        <v>10247</v>
+      </c>
+      <c r="K172" s="1">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>33</v>
       </c>
@@ -4113,11 +6746,26 @@
       <c r="E173" s="1">
         <v>12</v>
       </c>
-      <c r="F173" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="1">
+        <v>5</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>33</v>
       </c>
@@ -4133,11 +6781,26 @@
       <c r="E174" s="1">
         <v>12</v>
       </c>
-      <c r="F174" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="1">
+        <v>5</v>
+      </c>
+      <c r="G174" s="1">
+        <v>57332</v>
+      </c>
+      <c r="H174" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I174" s="1">
+        <v>56975</v>
+      </c>
+      <c r="J174" s="1">
+        <v>39408</v>
+      </c>
+      <c r="K174" s="1">
+        <v>54146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>33</v>
       </c>
@@ -4153,11 +6816,26 @@
       <c r="E175" s="1">
         <v>12</v>
       </c>
-      <c r="F175" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F175" s="1">
+        <v>5</v>
+      </c>
+      <c r="G175" s="1">
+        <v>48000</v>
+      </c>
+      <c r="H175" s="1">
+        <v>32787</v>
+      </c>
+      <c r="I175" s="1">
+        <v>85689</v>
+      </c>
+      <c r="J175" s="1">
+        <v>11000</v>
+      </c>
+      <c r="K175" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>34</v>
       </c>
@@ -4173,11 +6851,26 @@
       <c r="E176" s="1">
         <v>12</v>
       </c>
-      <c r="F176" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F176" s="1">
+        <v>5</v>
+      </c>
+      <c r="G176" s="1">
+        <v>10247</v>
+      </c>
+      <c r="H176" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1">
+        <v>0</v>
+      </c>
+      <c r="K176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -4193,11 +6886,26 @@
       <c r="E177" s="1">
         <v>12</v>
       </c>
-      <c r="F177" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F177" s="1">
+        <v>5</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+      <c r="J177" s="1">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>35</v>
       </c>
@@ -4213,11 +6921,26 @@
       <c r="E178" s="1">
         <v>12</v>
       </c>
-      <c r="F178" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F178" s="1">
+        <v>5</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1238</v>
+      </c>
+      <c r="H178" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I178" s="1">
+        <v>1748</v>
+      </c>
+      <c r="J178" s="1">
+        <v>7500</v>
+      </c>
+      <c r="K178" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>35</v>
       </c>
@@ -4233,8 +6956,23 @@
       <c r="E179" s="1">
         <v>12</v>
       </c>
-      <c r="F179" s="4">
-        <v>5</v>
+      <c r="F179" s="1">
+        <v>5</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
